--- a/biology/Botanique/Joualle/Joualle.xlsx
+++ b/biology/Botanique/Joualle/Joualle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La joualle (« joala » en occitan) est un système ancestral de culture agricole associant sur une même parcelle de la vigne poussant sur des arbres fruitiers et plusieurs autres cultures intercalaires réalisées entre les rangées d'arbres. Cette méthode culturale a été pratiquée en plusieurs régions d'Europe, et notamment dans le Sud-Ouest de la France.
 Ce mode de cultures associées (entraide mutuelle végétale) diminuait les efforts du cultivateur et préservait la biodiversité. Des arbres fruitiers implantés en joualle y produisaient abricots (coteaux du Lot et de la Garonne, par exemple), cerises (Gironde), pêches de vigne (Charentes), prunes d'Ente (Périgord), et autres. Entre ces rangées de fruitiers, toutes sortes de cultures pouvaient s'y trouver: légumes, blé, fourrage, betteraves, pommes de terre ou tabac.
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les joualles étaient des champs composés de parcelles intercalaires cultivées et espacées de rangées de vigne et arbres fruitiers. L'écartement était variable, d'au moins une largeur suffisante pour le passage d'un attelage de bœufs, et jusqu'à parfois 15 mètres.
 Des arbres fruitiers d'espèces particulières sélectionnées en fonction de la nature des sols et du micro-climat local, étaient régulièrement implantés et renouvelés dans chaque rangée arborée de la joualle : pêchers de vigne en Charentes, mais aussi cerisiers en Gironde, pruniers d'Ente en Lot-et-Garonne et dans le Périgord, ou encore abricotiers sur les coteaux du Lot et de la Garonne étaient régulièrement implantés dans chaque rang de vigne. Cette plante liane pouvait ainsi grimper dans des arbres qui servaient de tuteurs vivants (type de culture en hautain).
@@ -549,7 +563,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La joualle, vigne plantée de telle façon qu'on puisse cultiver entre les rangs, est dérivée de « jouelle » forme féminine de l'ancien français du XVe siècle « jouau, une pièce de bois servant à attacher la vigne », elle-même issue du latin « jugum, la jugulaire, le joug ». Les transitions linguistiques et orthographiques de jugum à joualle se sont réalisées sur environ deux millénaires :
 Au IIe siècle : Le latin jugare vineam, « attacher la vigne » (Columelle) et jugalis, « en forme de joug » (pièce de bois reliant deux bœufs de labour) ;
@@ -585,21 +601,23 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>En tout début de l'ère historique, le poète latin Virgile évoquait des techniques de cultures qui bien plus tard seront dénommées : joualle et hautain :
 « Je vais chanter l’art qui produit les riantes moissons ; je dirai, ô Mécène, sous quel astre il convient de labourer la terre, et de marier la vigne à l’ormeau ; quels soins il faut donner aux bœufs, à la conservation des troupeaux, et quelle sage industrie fait prospérer l’abeille économe. Brillants flambeaux de l’univers, vous qui dirigez dans les cieux la marche de l’année, Bacchus, et toi, bienfaisante Cérès, je vous invoque, s’il est vrai que grâce à vous les humains aient remplacé le gland de Chaonie par l’épi nourricier, et mêlé pour la première fois le jus de la grappe avec l’eau de l’Achéloüs. Et vous, divinités tutélaires des champs, Faunes, Dryades, venez ensemble, accourez à ma voix : ce sont vos bienfaits que je chante… »
-— Les Géorgiques, de Virgile (70 à 19 av. J.-C.)[1]
+— Les Géorgiques, de Virgile (70 à 19 av. J.-C.)
 Au XIVe siècle, les champs cultivés en joualle étaient si fréquent que la « joualée de vigne » devint une mesure de superficie agraire (dès 1340). Et un siècle plus tard, la forme « joalle » est attestée en pays de Moyenne Garonne, pour désigner une mesure de longueur appliquée à la vigne (1483 Arch. Gironde G 1731 ds A. Brutails, Recueil sur l'équivalence des anciennes mesures de la Gironde, 1942, p. 41).
-Mais en certains endroits, pour accueillir de la vigne il manqua d'arbres assez haut et large (bois vivant). Se développa alors la culture en échalas (piquet de bois mort) et en treille (sur façade de muret ou de bâtiments). En 1690, au château de Ruth, à Sainte-Cécile-les-Vignes, furent plantées 100 treilles de muscats[2]. En 1750, dans le fief de Beauchamp, à Monteux, les vignes sont conduites sur treilles[3].
+Mais en certains endroits, pour accueillir de la vigne il manqua d'arbres assez haut et large (bois vivant). Se développa alors la culture en échalas (piquet de bois mort) et en treille (sur façade de muret ou de bâtiments). En 1690, au château de Ruth, à Sainte-Cécile-les-Vignes, furent plantées 100 treilles de muscats. En 1750, dans le fief de Beauchamp, à Monteux, les vignes sont conduites sur treilles.
 Au XVIIIe siècle, le sectaire abbé Rozier, un botaniste qui devint curé constitutionnel, cloua au pilori les pratiques du hautain et de la joualle, dans son ouvrage La manière de faire du vin en Provence; 1772 :
-« Tout arbre nuit à la vigne, autant par son ombrage que par ses racines. Que celui qui plante ou cultive la vigne ait sans cesse devant les yeux le précepte donné par Virgile « apertos bacchus amat colles » : En un mot, on doit planter la vigne que dans des terrains où ne peut croître le froment[4]. »
+« Tout arbre nuit à la vigne, autant par son ombrage que par ses racines. Que celui qui plante ou cultive la vigne ait sans cesse devant les yeux le précepte donné par Virgile « apertos bacchus amat colles » : En un mot, on doit planter la vigne que dans des terrains où ne peut croître le froment. »
 Puis au milieu du XIXe siècle, l'apparition de l'oïdium dans les vignobles jouxtant les rives de l'estuaire de la Gironde (le vignoble de Blaye fut le premier atteint en 1851 à Cartelègue), puis dans la basse vallée de la Garonne, a sonné le glas dans le Bordelais des cultures en joualles, en treilles, sur échalas ou sur hautains qui perdurèrent ailleurs (plus au nord dans les Charentes, par exemple) :
 Au XXe siècle : à la suite des nouvelles techniques culturales, le terme joualle s'est déformé ou se résume à une bi-culture vigne-céréale (jusqu'aux années 60) :
 en langues d'oïl : « jouallée, rangée de vigne alternant avec des sillons de céréales », dans le Blésois (Charte blésoise citée par A. Thomas ds Romania t. 39, 1910, p. 235) ;
 en langues d'Oc : « joualles, rang de ceps de vignes alternant avec des bandes de terrain semées de céréales », en Agenais (Archives du Lot-et-Garonne ds P. Deffontaine, Les hommes et leurs travaux dans le pays de Moyenne Garonne, 1932, p. 227).
 En Note 2 des mêmes archives : « Depuis quelques années, on a introduit un nouveau mode de planter la vigne en Agenais : on les plante à 6 pieds de distance et on les travaille à la charrue. Ces lignes s'appellent joualles ou cancé. »
-« Ont également régressé les allées, joualles, chaintres, ouillères où 1, 2, 3, 4 ou 5 rangs de vigne alternaient avec une bande de terrain plus ou moins large réservée à des cultures intercalaires » (Levadoux, Vigne,1961, p. 107)[5].</t>
+« Ont également régressé les allées, joualles, chaintres, ouillères où 1, 2, 3, 4 ou 5 rangs de vigne alternaient avec une bande de terrain plus ou moins large réservée à des cultures intercalaires » (Levadoux, Vigne,1961, p. 107).</t>
         </is>
       </c>
     </row>
